--- a/Test-Scenarios_Open Cart FrontEnd.xlsx
+++ b/Test-Scenarios_Open Cart FrontEnd.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usama Noshad\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usama Noshad\OneDrive\Desktop\Working Directory\Manual-Testing-Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF7B9EC-82C8-46C9-AF9B-53094EFF8DCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BE957E-D1DF-4F95-992B-53EC95111456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2B77E45D-6919-4534-9C26-1B4DE545C55A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -209,19 +209,16 @@
     <t>Validate the working of Gift Certificates Functionality</t>
   </si>
   <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
-  </si>
-  <si>
-    <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>HIgh</t>
   </si>
 </sst>
 </file>
@@ -637,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F588DC94-0295-4AA1-A2A8-B6E5E6F511DE}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,6 +643,7 @@
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="25.5546875" customWidth="1"/>
     <col min="3" max="3" width="67.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
@@ -775,7 +773,7 @@
         <v>38</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -887,7 +885,7 @@
         <v>46</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -901,7 +899,7 @@
         <v>47</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -915,7 +913,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -929,7 +927,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -985,7 +983,7 @@
         <v>53</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -999,7 +997,7 @@
         <v>54</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1013,7 +1011,7 @@
         <v>55</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
